--- a/database.xlsx
+++ b/database.xlsx
@@ -13,6 +13,68 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>user_info</t>
+  </si>
+  <si>
+    <t>car_brend</t>
+  </si>
+  <si>
+    <t>car_model</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>car_brand_id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>car_model_id</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>car_number</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>driver_licence</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
@@ -174,12 +236,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -479,103 +547,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -590,7 +658,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -611,10 +679,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -624,8 +692,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,14 +1018,127 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="11.9" customWidth="true"/>
+    <col min="4" max="4" width="11.9" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19470" windowHeight="7770"/>
+    <workbookView windowWidth="24000" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>user_info</t>
+    <t>car</t>
   </si>
   <si>
     <t>car_brend</t>
@@ -34,43 +34,64 @@
     <t>name</t>
   </si>
   <si>
+    <t>driver_id</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>brand_id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>model_id</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>driver_licence</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
     <t>user_id</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>car_brand_id</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>car_model_id</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>car_number</t>
-  </si>
-  <si>
-    <t>temp</t>
-  </si>
-  <si>
-    <t>driver_licence</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>photo</t>
-  </si>
-  <si>
-    <t>order</t>
   </si>
 </sst>
 </file>
@@ -79,9 +100,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,9 +113,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,129 +242,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,13 +272,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,19 +344,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,31 +374,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,6 +416,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,97 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,41 +466,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,22 +490,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +538,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -547,148 +568,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,10 +1039,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:H16"/>
+  <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -1037,7 +1058,6 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2"/>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1103,39 +1123,101 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>14</v>
       </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="10155"/>
+    <workbookView windowWidth="24000" windowHeight="10230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>user</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
     <t>car</t>
   </si>
   <si>
@@ -28,70 +79,22 @@
     <t>car_model</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>user_id</t>
   </si>
   <si>
     <t>driver_id</t>
   </si>
   <si>
-    <t>surname</t>
-  </si>
-  <si>
     <t>brand_id</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>model_id</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
-    <t>temp</t>
-  </si>
-  <si>
     <t>isActive</t>
-  </si>
-  <si>
-    <t>photo</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>driver_licence</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>user_id</t>
   </si>
 </sst>
 </file>
@@ -99,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,6 +119,111 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,14 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,89 +247,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,21 +259,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -272,31 +275,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,55 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,79 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,8 +472,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,17 +517,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,15 +558,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -554,162 +566,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -717,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -899,7 +902,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -923,9 +926,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -949,7 +952,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1002,7 +1005,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1027,7 +1030,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1039,185 +1042,191 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D22" sqref="D22:H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="11.9" customWidth="true"/>
-    <col min="4" max="4" width="11.9" customWidth="true"/>
+    <col min="2" max="2" width="11.9" customWidth="1"/>
+    <col min="4" max="4" width="11.9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>17</v>
+    <row r="28" spans="4:4">
+      <c r="D28" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>user</t>
   </si>
   <si>
+    <t>driver_id</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -80,9 +83,6 @@
   </si>
   <si>
     <t>user_id</t>
-  </si>
-  <si>
-    <t>driver_id</t>
   </si>
   <si>
     <t>brand_id</t>
@@ -1045,7 +1045,7 @@
   <dimension ref="B2:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:H28"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1054,164 +1054,167 @@
     <col min="4" max="4" width="11.9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="4:4">
